--- a/public/bercar/CarCost2024.xlsx
+++ b/public/bercar/CarCost2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/me/Documents/Projects/Blog/blog/content/posts/bercar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEEA93F-6D60-5D48-80D1-DFE5D546A391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5D727-65A0-7748-8372-362B7FADF3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7380" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{054AFE18-7A79-FF4E-B019-D1ACF7DD833D}"/>
   </bookViews>
@@ -805,10 +805,10 @@
                   <c:v>-9040.7199999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2148.515370936032</c:v>
+                  <c:v>-2445.2816546331414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2148.515370936032</c:v>
+                  <c:v>-2445.2816546331414</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>-6654.5986564119212</c:v>
@@ -876,10 +876,10 @@
                   <c:v>-1940.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2105.3021577466684</c:v>
+                  <c:v>-2348.6899110211511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2105.3021577466684</c:v>
+                  <c:v>-2348.6899110211511</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>-6654.5986564119212</c:v>
@@ -947,10 +947,10 @@
                   <c:v>-1940.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2060.6856589684271</c:v>
+                  <c:v>-2244.392422976438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2060.6856589684271</c:v>
+                  <c:v>-2244.392422976438</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>-25692.881920411921</c:v>
@@ -1020,10 +1020,10 @@
                   <c:v>-1940.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2014.6203049641856</c:v>
+                  <c:v>-2131.7744537208678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2014.6203049641856</c:v>
+                  <c:v>-2131.7744537208678</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>-1940.7199999999998</c:v>
@@ -1093,10 +1093,10 @@
                   <c:v>1100.763774282188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2232.9409537101719</c:v>
+                  <c:v>2189.827775028989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2612.6603350323594</c:v>
+                  <c:v>2569.5471563511765</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>1820.4756867821879</c:v>
@@ -2829,9 +2829,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2869,7 +2869,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2975,7 +2975,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3127,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C866BA4C-BA58-104B-88A9-F72D76750C6E}">
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5002,7 +5002,7 @@
         <v>94</v>
       </c>
       <c r="C36" s="10">
-        <v>3.2000000000000001E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C38" s="8">
         <f>PMT(C36/12,C37,C35)</f>
-        <v>-128.20970898175236</v>
+        <v>-142.94517778871017</v>
       </c>
       <c r="T38" s="7"/>
     </row>
@@ -5281,35 +5281,35 @@
       </c>
       <c r="C48" s="4">
         <f>-CUMIPMT($C$36/12,$C$37,$C$35,(C42-2024)*12+1,(C42-2024)*12+12,0)</f>
-        <v>207.79537093603199</v>
+        <v>504.56165463314164</v>
       </c>
       <c r="D48" s="4">
         <f>-CUMIPMT($C$36/12,$C$37,$C$35,(D42-2024)*12+1,(D42-2024)*12+12,0)</f>
-        <v>164.5821577466686</v>
+        <v>407.96991102115135</v>
       </c>
       <c r="E48" s="4">
         <f>-CUMIPMT($C$36/12,$C$37,$C$35,(E42-2024)*12+1,(E42-2024)*12+12,0)</f>
-        <v>119.96565896842731</v>
+        <v>303.67242297643838</v>
       </c>
       <c r="F48" s="4">
         <f>-CUMIPMT($C$36/12,$C$37,$C$35,(F42-2024)*12+1,(F42-2024)*12+12,0)</f>
-        <v>73.900304964185807</v>
+        <v>191.05445372086797</v>
       </c>
       <c r="G48" s="4">
         <f>-CUMIPMT($C$36/12,$C$37,$C$35,(G42-2024)*12+1,(G42-2024)*12+12,0)</f>
-        <v>26.339046289828048</v>
+        <v>69.452224971010992</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="13"/>
-        <v>592.58253890514175</v>
+        <v>1476.7106673226103</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="14"/>
-        <v>118.51650778102835</v>
+        <v>295.34213346452208</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="15"/>
-        <v>9.8763756484190299</v>
+        <v>24.61184445537684</v>
       </c>
       <c r="K48" s="4"/>
     </row>
@@ -5430,35 +5430,35 @@
       </c>
       <c r="C52" s="4">
         <f>-SUM(C44:C48)</f>
-        <v>-2148.515370936032</v>
+        <v>-2445.2816546331414</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ref="D52:F52" si="17">-SUM(D44:D48)</f>
-        <v>-2105.3021577466684</v>
+        <v>-2348.6899110211511</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="17"/>
-        <v>-2060.6856589684271</v>
+        <v>-2244.392422976438</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="17"/>
-        <v>-2014.6203049641856</v>
+        <v>-2131.7744537208678</v>
       </c>
       <c r="G52" s="4">
         <f>-SUM(G44:G48)+C35-H43</f>
-        <v>2232.9409537101719</v>
+        <v>2189.827775028989</v>
       </c>
       <c r="H52" s="4">
         <f>SUM(C52:G52)</f>
-        <v>-6096.1825389051419</v>
+        <v>-6980.3106673226084</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" si="14"/>
-        <v>-1219.2365077810284</v>
+        <v>-1396.0621334645216</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" ref="J52:J54" si="18">I52/12</f>
-        <v>-101.6030423150857</v>
+        <v>-116.33851112204347</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
@@ -5467,35 +5467,35 @@
       </c>
       <c r="C53" s="4">
         <f>-SUM(C44:C48)</f>
-        <v>-2148.515370936032</v>
+        <v>-2445.2816546331414</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ref="D53:F53" si="19">-SUM(D44:D48)</f>
-        <v>-2105.3021577466684</v>
+        <v>-2348.6899110211511</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="19"/>
-        <v>-2060.6856589684271</v>
+        <v>-2244.392422976438</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="19"/>
-        <v>-2014.6203049641856</v>
+        <v>-2131.7744537208678</v>
       </c>
       <c r="G53" s="4">
         <f>-SUM(G44:G48)+C35-H43+H50-H49</f>
-        <v>2612.6603350323594</v>
+        <v>2569.5471563511765</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" si="13"/>
-        <v>-5716.4631575829544</v>
+        <v>-6600.591286000421</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" si="14"/>
-        <v>-1143.292631516591</v>
+        <v>-1320.1182572000841</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="18"/>
-        <v>-95.274385959715914</v>
+        <v>-110.00985476667368</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
